--- a/public/sprint/Project Backlog.xlsx
+++ b/public/sprint/Project Backlog.xlsx
@@ -6,18 +6,18 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$25</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A11126F9_6E76_4C04_92BA_9CC6F94183A2_.wvu.FilterData">Sheet1!$A$1:$F$25</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$23</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_5619FAE0_1F1B_40F5_89B4_DC0F881B884B_.wvu.FilterData">Sheet1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A11126F9-6E76-4C04-92BA-9CC6F94183A2}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5619FAE0-1F1B-40F5-89B4-DC0F881B884B}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -132,7 +132,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,15 +147,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -619,149 +615,232 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>5.0</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2">
+        <v>17.0</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>18.0</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2">
+        <v>19.0</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>5.0</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
+      <c r="D16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>20.0</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>5.0</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
+      <c r="D17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="D20" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" s="1">
         <v>2.0</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
+      <c r="F20" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="D21" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" s="1">
         <v>2.0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="D22" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" s="1">
         <v>2.0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -769,69 +848,29 @@
         <v>12.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1">
+        <v>32</v>
+      </c>
+      <c r="C23" s="2">
         <v>10.0</v>
       </c>
-      <c r="D23" s="1">
-        <v>2.0</v>
+      <c r="D23" s="2">
+        <v>3.0</v>
       </c>
       <c r="E23" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="F25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$25"/>
+  <autoFilter ref="$A$1:$G$23"/>
   <customSheetViews>
-    <customSheetView guid="{A11126F9-6E76-4C04-92BA-9CC6F94183A2}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$F$25"/>
+    <customSheetView guid="{5619FAE0-1F1B-40F5-89B4-DC0F881B884B}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$F$23"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="E2:E25">
+  <conditionalFormatting sqref="E2:E23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -843,7 +882,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G25">
+  <conditionalFormatting sqref="G2:G23">
     <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(G2))&gt;0</formula>
     </cfRule>
